--- a/service/templates/Report.xlsx
+++ b/service/templates/Report.xlsx
@@ -401,7 +401,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,12 +470,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -486,23 +482,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -691,8 +679,8 @@
   </sheetPr>
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M54" activeCellId="0" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1660,7 +1648,7 @@
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
-      <c r="L41" s="18" t="s">
+      <c r="L41" s="8" t="s">
         <v>48</v>
       </c>
       <c r="N41" s="8" t="s">
@@ -1669,29 +1657,29 @@
       <c r="O41" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P41" s="19" t="s">
+      <c r="P41" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="15"/>
@@ -1701,14 +1689,14 @@
       <c r="T42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="15"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="15"/>
@@ -1723,14 +1711,14 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="25"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="15"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="15"/>
@@ -1740,14 +1728,14 @@
       <c r="T44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="25"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="15"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="15"/>
@@ -1761,14 +1749,14 @@
         <v>58</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="25"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="15"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="15"/>
@@ -1778,14 +1766,14 @@
       <c r="T46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="25"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="15"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="15"/>
@@ -1795,14 +1783,14 @@
       <c r="T47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="25"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="15"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="15"/>
@@ -1812,14 +1800,14 @@
       <c r="T48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="25"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="15"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="15"/>
@@ -1829,14 +1817,14 @@
       <c r="T49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="25"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="15"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="15"/>
@@ -1846,14 +1834,14 @@
       <c r="T50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="25"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="15"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="15"/>
@@ -1863,14 +1851,14 @@
       <c r="T51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="25"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="15"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="15"/>
@@ -1880,14 +1868,14 @@
       <c r="T52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="25"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="15"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="15"/>
@@ -1897,14 +1885,14 @@
       <c r="T53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="25"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="15"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="15"/>
@@ -1914,14 +1902,14 @@
       <c r="T54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="25"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="15"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="15"/>
@@ -1931,14 +1919,14 @@
       <c r="T55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G56" s="22" t="s">
+      <c r="G56" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="25"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="15"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="15"/>
@@ -1948,14 +1936,14 @@
       <c r="T56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="25"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="15"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="15"/>
@@ -1965,14 +1953,14 @@
       <c r="T57" s="15"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G58" s="21" t="s">
+      <c r="G58" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="15"/>
@@ -1982,14 +1970,14 @@
       <c r="T58" s="15"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="25"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="15"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="15"/>
@@ -1999,14 +1987,14 @@
       <c r="T59" s="15"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G60" s="22" t="s">
+      <c r="G60" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="25"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="15"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="15"/>
@@ -2016,14 +2004,14 @@
       <c r="T60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="25"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="15"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="15"/>
@@ -2033,14 +2021,14 @@
       <c r="T61" s="15"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="25"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="15"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="15"/>
@@ -2050,14 +2038,14 @@
       <c r="T62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="25"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="15"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="15"/>
